--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3138.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3138.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9490980690186499</v>
+        <v>1.213215351104736</v>
       </c>
       <c r="B1">
-        <v>1.75936052848431</v>
+        <v>1.4027179479599</v>
       </c>
       <c r="C1">
-        <v>4.099237435258424</v>
+        <v>1.789689421653748</v>
       </c>
       <c r="D1">
-        <v>4.51420770441395</v>
+        <v>3.83499813079834</v>
       </c>
       <c r="E1">
-        <v>1.484276041208488</v>
+        <v>3.460132360458374</v>
       </c>
     </row>
   </sheetData>
